--- a/trained_models_old_clean/MLP/gas_sensor/results_table.xlsx
+++ b/trained_models_old_clean/MLP/gas_sensor/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5482646904233974, 'beta_2': 0.7144741770060471, 'epsilon': 0.6021606126955722, 'learning_rate': 'invscaling', 'momentum': 0.6235636967859723, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2975346065444723}</t>
+          <t>{'beta_1': 0.3639228019573255, 'beta_2': 0.48280639975977313, 'epsilon': 0.9129734837504085, 'learning_rate': 'constant', 'momentum': 0.22804609816491894, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3182942498743513}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.8040249161475802</v>
+        <v>0.2127455678006708</v>
       </c>
     </row>
     <row r="3">
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.519094064086862, 'beta_2': 0.6599215566819873, 'epsilon': 0.5656267886268035, 'learning_rate': 'constant', 'momentum': 0.2626108832218125, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.1670891885098651}</t>
+          <t>{'beta_1': 0.05111926735386998, 'beta_2': 0.10397468759931923, 'epsilon': 0.6138236250432934, 'learning_rate': 'adaptive', 'momentum': 0.7255735341014894, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7731100525054192}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.8643986583612842</v>
+        <v>0.8737422137038812</v>
       </c>
     </row>
     <row r="4">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.229046817885475, 'beta_2': 0.6847295177750642, 'epsilon': 0.525886126729427, 'learning_rate': 'adaptive', 'momentum': 0.8322388610488994, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9048267078810679}</t>
+          <t>{'beta_1': 0.9545104673724751, 'beta_2': 0.5977176533953225, 'epsilon': 0.11879802520386755, 'learning_rate': 'invscaling', 'momentum': 0.9087334407983848, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.14543560340536665}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.6530905606133206</v>
+        <v>0.6178725443219933</v>
       </c>
     </row>
     <row r="5">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.13533859015822777, 'beta_2': 0.29798404363007475, 'epsilon': 0.5693949457905636, 'learning_rate': 'invscaling', 'momentum': 0.5518162591332588, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9689617652602737}</t>
+          <t>{'beta_1': 0.05100201162723169, 'beta_2': 0.33093761141243355, 'epsilon': 0.32000596022432076, 'learning_rate': 'adaptive', 'momentum': 0.33828139189745543, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8664586694893915}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.2127455678006708</v>
+        <v>0.7196933397220892</v>
       </c>
     </row>
     <row r="6">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.11069316714792313, 'beta_2': 0.27895318215123505, 'epsilon': 0.5521879955057969, 'learning_rate': 'constant', 'momentum': 0.6238667252688536, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.010585739586393417}</t>
+          <t>{'beta_1': 0.3898401886642236, 'beta_2': 0.7323934817522378, 'epsilon': 0.9396979743809128, 'learning_rate': 'constant', 'momentum': 0.4787726368177081, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.7221507657001041}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.2127455678006708</v>
+        <v>0.747963584091998</v>
       </c>
     </row>
     <row r="7">
@@ -684,7 +684,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6559484946101716, 'beta_2': 0.37346672868995284, 'epsilon': 0.7842813127380445, 'learning_rate': 'adaptive', 'momentum': 0.5082713750461963, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.44787809291973113}</t>
+          <t>{'beta_1': 0.3912753413598011, 'beta_2': 0.9564371379722508, 'epsilon': 0.47734815263293473, 'learning_rate': 'invscaling', 'momentum': 0.9459202389602205, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8143851000802041}</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.35803600282451253, 'beta_2': 0.932432429074754, 'epsilon': 0.7829176503966407, 'learning_rate': 'adaptive', 'momentum': 0.45029046621847624, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.3356722539793957}</t>
+          <t>{'beta_1': 0.2938866989914802, 'beta_2': 0.35355020606960597, 'epsilon': 0.003706063976268667, 'learning_rate': 'constant', 'momentum': 0.11686714853972713, 'nesterovs_momentum': False, 'solver': 'adam', 'validation_fraction': 0.2552645170920256}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.5373742213703881</v>
+        <v>0.827024436990896</v>
       </c>
     </row>
     <row r="9">
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7454851955006616, 'beta_2': 0.1863022098470471, 'epsilon': 0.9550867672423169, 'learning_rate': 'adaptive', 'momentum': 0.4288980925565181, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5661600170334582}</t>
+          <t>{'beta_1': 0.900106903707655, 'beta_2': 0.009365802526148359, 'epsilon': 0.10228756130139185, 'learning_rate': 'adaptive', 'momentum': 0.5024530743128972, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.898110969165408}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.2127455678006708</v>
+        <v>0.8672735984666986</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6640009209479042, 'beta_2': 0.42263138572595504, 'epsilon': 0.19879194898555852, 'learning_rate': 'constant', 'momentum': 0.6495342241752968, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8668609136593749}</t>
+          <t>{'beta_1': 0.14454644832421407, 'beta_2': 0.16787447884661194, 'epsilon': 0.06437100980051019, 'learning_rate': 'invscaling', 'momentum': 0.20825325212148382, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2153982043432382}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.2127455678006708</v>
+        <v>0.934355534259703</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.12789284958036584, 'beta_2': 0.5826096381595377, 'epsilon': 0.002062570938847292, 'learning_rate': 'invscaling', 'momentum': 0.4124335494348642, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8937727558492876}</t>
+          <t>{'beta_1': 0.7770054833501733, 'beta_2': 0.07101681272948948, 'epsilon': 0.3420641590354221, 'learning_rate': 'adaptive', 'momentum': 0.12503687251526652, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8965321885275243}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.6538092956396742</v>
+        <v>0.5785816962146622</v>
       </c>
     </row>
     <row r="12">
@@ -864,11 +864,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.36329678066331156, 'beta_2': 0.06113624965643826, 'epsilon': 0.3826067126653493, 'learning_rate': 'adaptive', 'momentum': 0.3060579219477887, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9767110996421522}</t>
+          <t>{'beta_1': 0.7746514249422546, 'beta_2': 0.7964955714083342, 'epsilon': 0.7807090265923036, 'learning_rate': 'invscaling', 'momentum': 0.72685102950692, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.03669141786941299}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.9202204120747485</v>
+        <v>0.2127455678006708</v>
       </c>
     </row>
     <row r="13">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.9542478120828, 'beta_2': 0.5530798961168548, 'epsilon': 0.9357463476708033, 'learning_rate': 'invscaling', 'momentum': 0.9236518593869899, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.19815949993946502}</t>
+          <t>{'beta_1': 0.2938866989914802, 'beta_2': 0.35355020606960597, 'epsilon': 0.003706063976268667, 'learning_rate': 'constant', 'momentum': 0.11686714853972713, 'nesterovs_momentum': False, 'solver': 'adam', 'validation_fraction': 0.2552645170920256}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.6401533301389555</v>
+        <v>0.2129851461427887</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.833663933541544, 'beta_2': 0.1872573088827188, 'epsilon': 0.004763609386505701, 'learning_rate': 'constant', 'momentum': 0.34010682940846015, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6864476241430553}</t>
+          <t>{'beta_1': 0.36329678066331156, 'beta_2': 0.06113624965643826, 'epsilon': 0.3826067126653493, 'learning_rate': 'adaptive', 'momentum': 0.3060579219477887, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9767110996421522}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.8073790129372305</v>
+        <v>0.6566842357450886</v>
       </c>
     </row>
     <row r="15">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.004044058262057914, 'beta_2': 0.2692099545241596, 'epsilon': 0.4100816459563625, 'learning_rate': 'constant', 'momentum': 0.8221177331942455, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.511318982546456}</t>
+          <t>{'beta_1': 0.7770054833501733, 'beta_2': 0.07101681272948948, 'epsilon': 0.3420641590354221, 'learning_rate': 'adaptive', 'momentum': 0.12503687251526652, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.8965321885275243}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.7005270723526593</v>
+        <v>0.6377575467177767</v>
       </c>
     </row>
     <row r="16">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.318152772679051, 'beta_2': 0.8413259323375559, 'epsilon': 0.8579980526540874, 'learning_rate': 'constant', 'momentum': 0.566088448063145, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.30128918764272283}</t>
+          <t>{'beta_1': 0.14454644832421407, 'beta_2': 0.16787447884661194, 'epsilon': 0.06437100980051019, 'learning_rate': 'invscaling', 'momentum': 0.20825325212148382, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.2153982043432382}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.2127455678006708</v>
+        <v>0.6473406804024916</v>
       </c>
     </row>
     <row r="17">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.04044956203133352, 'beta_2': 0.4913894165920973, 'epsilon': 0.8142308472831555, 'learning_rate': 'constant', 'momentum': 0.6939881399885446, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5704366902119271}</t>
+          <t>{'beta_1': 0.24955315384928356, 'beta_2': 0.010154777764660419, 'epsilon': 0.8302355151440006, 'learning_rate': 'constant', 'momentum': 0.23125495297968846, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9454309703916057}</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.28685443267485683, 'beta_2': 0.44629001466989243, 'epsilon': 0.12367189482556977, 'learning_rate': 'constant', 'momentum': 0.9792702400358185, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8809980607861312}</t>
+          <t>{'beta_1': 0.8571206004221198, 'beta_2': 0.45285074832438077, 'epsilon': 0.43389557352322544, 'learning_rate': 'constant', 'momentum': 0.40746848288962145, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9798641184223712}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.2127455678006708</v>
+        <v>0.8102539530426449</v>
       </c>
     </row>
     <row r="19">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8486357637336316, 'beta_2': 0.5962052156871164, 'epsilon': 0.6748570656712874, 'learning_rate': 'adaptive', 'momentum': 0.8178071324672784, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9357703614435252}</t>
+          <t>{'beta_1': 0.24917062101539475, 'beta_2': 0.10580024872734997, 'epsilon': 0.9500016584443387, 'learning_rate': 'constant', 'momentum': 0.3581074751151223, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9167270193301819}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.6370388116914231</v>
+        <v>0.7316722568279828</v>
       </c>
     </row>
     <row r="20">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.2938866989914802, 'beta_2': 0.35355020606960597, 'epsilon': 0.003706063976268667, 'learning_rate': 'constant', 'momentum': 0.11686714853972713, 'nesterovs_momentum': False, 'solver': 'adam', 'validation_fraction': 0.2552645170920256}</t>
+          <t>{'beta_1': 0.44159360209219534, 'beta_2': 0.5194324221962674, 'epsilon': 0.693262454523613, 'learning_rate': 'invscaling', 'momentum': 0.46100682934939485, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5391182349867721}</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.5294681360804984</v>
+        <v>0.2127455678006708</v>
       </c>
     </row>
     <row r="21">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6869017041950402, 'beta_2': 0.04257331712662113, 'epsilon': 0.5486880218735323, 'learning_rate': 'adaptive', 'momentum': 0.396222744661744, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.22082428411043153}</t>
+          <t>{'beta_1': 0.8262029973985192, 'beta_2': 0.17031668652341375, 'epsilon': 0.7005474479755266, 'learning_rate': 'invscaling', 'momentum': 0.1979076029143242, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.05690645260383198}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.2127455678006708</v>
+        <v>0.8457115476760901</v>
       </c>
     </row>
   </sheetData>
